--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110398.3834393194</v>
+        <v>154259.8807116066</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8411165.799857531</v>
+        <v>8430105.195162915</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>322.9639268876601</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>79.79707707841702</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.28512821040621</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>122.4787729478897</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>61.10354188770966</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.8713318308988</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>156.311389151733</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>89.45544891595532</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,16 +1142,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.6793655011337</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>212.0537275072943</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.3735377741844</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>246.7675307998117</v>
       </c>
       <c r="E11" t="n">
-        <v>418.4685657939506</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706846</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772231</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>133.208388787587</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170475</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>123.2901323038659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>347.2392751840384</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.6047512078523</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>280.9390873188494</v>
+        <v>144.4937753855476</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377964</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>101.0430753545961</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>133.3857454398441</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630678</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.056777352258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.4087526250907</v>
+        <v>122.9742767430581</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>20.08472694640569</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3430,13 +3430,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3472,13 +3472,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>220.5721336316185</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>170.6620894478694</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932896</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225768</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,16 +3749,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>54.82067209135272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225568</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5144690908962</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>861.8106590603875</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230547</v>
+        <v>827.7085902842148</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678149</v>
+        <v>795.8392094990634</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>766.1048686977626</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587462</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587462</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587462</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587462</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679768</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756275</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826348</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826348</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2115.538816666331</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1696.396353245642</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1288.110229545295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397417</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064423</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940206</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940206</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940206</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454.6477016666967</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="C4" t="n">
-        <v>454.6477016666967</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="D4" t="n">
-        <v>454.6477016666967</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>619.9677370975529</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.445424286012</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291231</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448876</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674657</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452644999</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509332</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2188.066959793159</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1909.633959046264</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1622.678450916694</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1350.652046502986</v>
       </c>
       <c r="X4" t="n">
-        <v>454.6477016666967</v>
+        <v>1105.260291836398</v>
       </c>
       <c r="Y4" t="n">
-        <v>454.6477016666967</v>
+        <v>981.5443595658028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>832.0025222626567</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2524.68820323374</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2119.832748644773</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.33568193854</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.2124341566272</v>
+        <v>954.7136726652275</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>782.1519611484524</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>782.1519611484524</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1653.597487995201</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1653.597487995201</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1606.824390771372</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1319.868882641802</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.842478228094</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>802.450723561506</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>575.0310528756143</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715259</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953533</v>
+        <v>1077.696448557624</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020186</v>
+        <v>1045.827067772473</v>
       </c>
       <c r="E8" t="n">
-        <v>60.5989610089011</v>
+        <v>1016.092726971172</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851289</v>
+        <v>588.22529738038</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851289</v>
+        <v>186.8274660036438</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851289</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851289</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851289</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576099</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576099</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576099</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576099</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743941</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873491</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172588</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925645</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925645</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925645</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1579.374470242662</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1216.757520176488</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9020655875213</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>796.800006207236</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>582.6043218564337</v>
+        <v>1538.098087818705</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230042</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851289</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897048</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842799</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842799</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842799</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842799</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.70087907242</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1391675556449</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1391675556449</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>353.3811638063822</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>176.6741097681384</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681384</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851289</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851289</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>795.6820475364339</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1250.734748835531</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835531</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061312</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061312</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925645</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925645</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223641</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.475957802097</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1433.475957802097</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.520449672527</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1146.520449672527</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>901.1286950059396</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>695.70087907242</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.879170851549</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034972</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209416</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
         <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112632</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112632</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046459</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457492</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036803</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336456</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5182,31 +5182,31 @@
         <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,19 +5221,19 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
         <v>1611.862057829513</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5291,10 +5291,10 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.644769302702</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>806.2298140987273</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>633.6681025819522</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2472.724095295528</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2034.581622478951</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1598.671837653396</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1164.897092811691</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>737.0296632208988</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2328.843778144525</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>3454.574761580972</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>4434.754428151279</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="18">
@@ -5650,10 +5650,10 @@
         <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
@@ -5695,16 +5695,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2691.977765289287</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.098318867741</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2167.665318120847</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V19" t="n">
         <v>1883.888462243221</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.30874198473</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168154</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.256484342598</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F20" t="n">
-        <v>600.6143099101014</v>
+        <v>787.2639626146363</v>
       </c>
       <c r="G20" t="n">
-        <v>199.2164785333653</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>3163.194070102703</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>4288.925053539151</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169985</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469638</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.3761843184092</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>744.8144728016341</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>578.9364800031568</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2419.421141680048</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2140.988140933153</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1854.032632803584</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.006228389876</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1336.614473723288</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1109.194803037396</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903956</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751433</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258806</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134645</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134645</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>126.8499155856327</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2513.605954495038</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2235.172953748143</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>1948.217445618573</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1676.191041204865</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.799286538277</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>845.969722159226</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>673.4080106424509</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2069.58167877397</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1782.626170644401</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1510.599766230692</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1265.208011564105</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>1037.788340878213</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7169,55 +7169,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7230,22 +7230,22 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771609</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289577</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321678</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532229</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>982.1554751127507</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C43" t="n">
-        <v>809.5937635959756</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D43" t="n">
-        <v>809.5937635959756</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>639.8357598467129</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>463.1287058084691</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>297.5374308342967</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>157.6352565246713</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127507</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,64 +7634,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477116</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309365</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324591</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831963</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
@@ -7810,7 +7810,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.995166752591</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>479.9987875054285</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854953</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>251.5971719568265</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314112</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866507</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314111</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314111</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314112</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662679</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314111</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>401.5878508506016</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314111</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>860.035541581457</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>421.9740460140702</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>406.105460509576</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>553.407859107685</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352437</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>922.6993899926468</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>184.7831561774882</v>
       </c>
       <c r="E11" t="n">
-        <v>10.96843159933718</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729424775</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.5985112554901</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>50.14457787893036</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.146865729424405</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>267.5985112554913</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0349065174852</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081342</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>219.0118993322386</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>222.853110173516</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>55.07653710780721</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.48338453116338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>32.95267764171869</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>229.4233680290255</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>728791.6386408447</v>
+        <v>734623.1977318571</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>728791.6386408447</v>
+        <v>736274.5398754452</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729879.3215099652</v>
+        <v>736274.5398754452</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708503.2708709099</v>
+        <v>708503.2708709098</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>227862.6109534236</v>
+      </c>
+      <c r="C2" t="n">
         <v>227862.6109534237</v>
       </c>
-      <c r="C2" t="n">
-        <v>227862.6109534236</v>
-      </c>
       <c r="D2" t="n">
-        <v>227862.6109534236</v>
+        <v>227862.6109534237</v>
       </c>
       <c r="E2" t="n">
-        <v>214847.6566379624</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="F2" t="n">
         <v>214847.6566379625</v>
       </c>
       <c r="G2" t="n">
+        <v>214847.6566379625</v>
+      </c>
+      <c r="H2" t="n">
         <v>214847.6566379624</v>
-      </c>
-      <c r="H2" t="n">
-        <v>214847.6566379625</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26338,16 +26338,16 @@
         <v>223914.4732583748</v>
       </c>
       <c r="K2" t="n">
+        <v>223914.4732583748</v>
+      </c>
+      <c r="L2" t="n">
         <v>223914.4732583747</v>
-      </c>
-      <c r="L2" t="n">
-        <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
         <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
         <v>223914.4732583747</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039024</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390712</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200324</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520267</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856129</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784551</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510359</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104671</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.382848574</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449366</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960742</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
         <v>39457.78817960744</v>
@@ -26442,7 +26442,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26451,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991264</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991264</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991268</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814184</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484698</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161318.0108993219</v>
+        <v>-198815.1646571946</v>
       </c>
       <c r="C6" t="n">
-        <v>-19126.71023961205</v>
+        <v>-3074.20522114569</v>
       </c>
       <c r="D6" t="n">
-        <v>-25254.64451198601</v>
+        <v>14266.33915276146</v>
       </c>
       <c r="E6" t="n">
-        <v>-121928.7675713191</v>
+        <v>-59941.10758420372</v>
       </c>
       <c r="F6" t="n">
-        <v>101870.5261807076</v>
+        <v>101793.9676259107</v>
       </c>
       <c r="G6" t="n">
-        <v>101870.5261807075</v>
+        <v>101793.9676259107</v>
       </c>
       <c r="H6" t="n">
-        <v>101870.5261807075</v>
+        <v>101793.9676259107</v>
       </c>
       <c r="I6" t="n">
-        <v>86708.56708983003</v>
+        <v>86685.34275044737</v>
       </c>
       <c r="J6" t="n">
-        <v>-5941.182622320659</v>
+        <v>-55557.77110232598</v>
       </c>
       <c r="K6" t="n">
-        <v>105073.2827226695</v>
+        <v>91236.04981544139</v>
       </c>
       <c r="L6" t="n">
-        <v>96125.6716341592</v>
+        <v>105050.0583832868</v>
       </c>
       <c r="M6" t="n">
-        <v>-81717.70388779748</v>
+        <v>-29939.88622971661</v>
       </c>
       <c r="N6" t="n">
-        <v>105073.2827226695</v>
+        <v>105050.058383287</v>
       </c>
       <c r="O6" t="n">
-        <v>105073.2827226694</v>
+        <v>105050.0583832869</v>
       </c>
       <c r="P6" t="n">
-        <v>105073.2827226694</v>
+        <v>105050.0583832869</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314112</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052405</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130684</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282528</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052405</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130684</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282528</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052405</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130684</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282528</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>106.4730705056276</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>321.00982296466</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27543,10 +27543,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>141.7752955013639</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>102.6667010311431</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>297.8872386778021</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.3319306324443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>11.74903456003713</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>186.1932218234704</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,64 +27862,64 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>154.5594875100822</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>192.1495349560488</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.77193620484843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.118130629176109e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.108506085993625e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>479.9987875054285</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854953</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>251.5971719568265</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314112</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866507</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314111</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314111</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314112</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662679</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314111</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>401.5878508506016</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314111</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>860.035541581457</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35659,13 +35659,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>421.9740460140702</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>406.105460509576</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>553.407859107685</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352437</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,7 +37619,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>922.6993899926468</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
